--- a/Producción fiscalizada de crudo_2014_31122014.xlsx
+++ b/Producción fiscalizada de crudo_2014_31122014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC8AFA4-6DEE-4AB7-994B-D498E9D3B47E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C309ED1-A81E-40DC-8261-4BAEC69356C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2138,9 +2138,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2485,7 +2483,7 @@
   <dimension ref="A1:O484"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F1" sqref="F1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2528,28 +2526,28 @@
         <v>41671</v>
       </c>
       <c r="H1" s="7">
-        <v>41702</v>
+        <v>41699</v>
       </c>
       <c r="I1" s="7">
-        <v>41733</v>
+        <v>41730</v>
       </c>
       <c r="J1" s="7">
-        <v>41764</v>
+        <v>41760</v>
       </c>
       <c r="K1" s="7">
-        <v>41795</v>
+        <v>41791</v>
       </c>
       <c r="L1" s="7">
-        <v>41826</v>
+        <v>41821</v>
       </c>
       <c r="M1" s="7">
-        <v>41857</v>
+        <v>41852</v>
       </c>
       <c r="N1" s="7">
-        <v>41888</v>
+        <v>41883</v>
       </c>
       <c r="O1" s="7">
-        <v>41919</v>
+        <v>41913</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -24735,12 +24733,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24884,15 +24879,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56646E04-9394-46CB-872B-03F6EDF6F894}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D84358-D71A-49F6-AEE0-9E145F2EB96A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24916,10 +24915,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D84358-D71A-49F6-AEE0-9E145F2EB96A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56646E04-9394-46CB-872B-03F6EDF6F894}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Producción fiscalizada de crudo_2014_31122014.xlsx
+++ b/Producción fiscalizada de crudo_2014_31122014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C309ED1-A81E-40DC-8261-4BAEC69356C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0263BCEE-4991-4EA2-BC6A-7F965B1B45EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2138,7 +2138,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -24733,12 +24733,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F930251186CB0499D7625AA475F410A" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="418ac9787a3dc47b1a26e96bf56cbbc4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4afde810-2293-4670-bb5c-117753097ca5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85a954d37448c6d1ce4186c211e8601e" ns2:_="">
     <xsd:import namespace="4afde810-2293-4670-bb5c-117753097ca5"/>
@@ -24878,6 +24872,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24888,15 +24888,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D84358-D71A-49F6-AEE0-9E145F2EB96A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB869185-25DC-43C6-9BFA-40BA1BE0F296}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24914,6 +24905,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D84358-D71A-49F6-AEE0-9E145F2EB96A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56646E04-9394-46CB-872B-03F6EDF6F894}">
   <ds:schemaRefs>
